--- a/10_ResiduosSolidosUrbanos/P1001/P1001.xlsx
+++ b/10_ResiduosSolidosUrbanos/P1001/P1001.xlsx
@@ -161,7 +161,7 @@
     <t>2015</t>
   </si>
   <si>
-    <t>kg</t>
+    <t>kg/día</t>
   </si>
   <si>
     <t>Censo Nacional de Gobiernos Municipales y Delegacionales 2015</t>
